--- a/Database/CSVs/Passing_MOFs_Data.xlsx
+++ b/Database/CSVs/Passing_MOFs_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moinkhwaja/Documents/GitHub/HTS_MOF_Hydrogenation /Database/CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B968F-4F26-FB40-82CE-BCC27BD30E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F2BF09-D236-E645-81D9-38BF29D1A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1480" windowWidth="26600" windowHeight="15260" xr2:uid="{0EDA74B0-FE1F-AB49-BB99-5866585E9E27}"/>
+    <workbookView xWindow="1220" yWindow="1460" windowWidth="26600" windowHeight="15260" xr2:uid="{0EDA74B0-FE1F-AB49-BB99-5866585E9E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Passing Rate from Previous Tier</t>
   </si>
   <si>
-    <t>Passing MOFS</t>
-  </si>
-  <si>
     <t>QMOF ID</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>https://github.com/MoinKhwaja/HTS_MOF_Hydrogenation</t>
+  </si>
+  <si>
+    <t>Passing MOFs</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF048244-2D97-3C4E-A073-855205589DF5}">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,19 +1177,19 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="41"/>
     </row>
@@ -1315,7 +1315,7 @@
     <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1327,40 +1327,40 @@
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>18</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="30">
         <v>7.1497999999999999</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="17">
         <v>5.5119699999999998</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="17">
         <v>4.8045799999999996</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="17">
         <v>10.43769</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="17">
         <v>4.6986400000000001</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="17">
         <v>4.61287</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="17">
         <v>8.8351900000000008</v>
@@ -1536,13 +1536,13 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="17">
         <v>6.2585300000000004</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="17">
         <v>5.4692600000000002</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="17">
         <v>5.0492800000000004</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="17">
         <v>5.87622</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="17">
         <v>4.6972199999999997</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="17">
         <v>7.1490200000000002</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="17">
         <v>5.5482199999999997</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="17">
         <v>7.6605800000000004</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="17">
         <v>11.84187</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="17">
         <v>21.293420000000001</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="17">
         <v>21.590479999999999</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="17">
         <v>17.909050000000001</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="17">
         <v>14.4056</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="17">
         <v>6.67143</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="17">
         <v>8.0468899999999994</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="37" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="25">
         <v>15.33609</v>
